--- a/Canteen_db.xlsx
+++ b/Canteen_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU papers\Year1\CZ1003\Mini Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C981CBD-8BBE-47C4-B217-E36C3F1217B4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B74E5EF-A65A-4E54-B5FB-77813F4955A1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7470" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4332,7 +4332,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4362,6 +4362,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4389,7 +4394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -4414,6 +4419,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4696,7 +4702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1432" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1352" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D1361" sqref="D1361"/>
     </sheetView>
   </sheetViews>
@@ -31908,7 +31914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1361" spans="1:6">
+    <row r="1361" spans="1:6" ht="16.5">
       <c r="A1361" t="s">
         <v>1368</v>
       </c>
@@ -31918,7 +31924,7 @@
       <c r="C1361" s="12" t="s">
         <v>1368</v>
       </c>
-      <c r="D1361" s="12" t="s">
+      <c r="D1361" s="16" t="s">
         <v>1322</v>
       </c>
       <c r="E1361" s="13">
